--- a/mbs-perturbation/chatty/welm/nearmiss/chatty_welm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/chatty/welm/nearmiss/chatty_welm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.875</v>
+        <v>0.68</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6346153846153846</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9375</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.5993589743589745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.6025641025641026</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.5576923076923077</v>
       </c>
     </row>
   </sheetData>
